--- a/dvlp/Subhead-1-Wiring & Cables.xlsx
+++ b/dvlp/Subhead-1-Wiring & Cables.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\House Wiring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\New folder-2\enjoy\dvlp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA75D74-866E-497D-8995-4595E8011B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="115">
   <si>
     <t>Item No</t>
   </si>
@@ -125,12 +124,336 @@
   </si>
   <si>
     <t>CONCEALED CONDUIT POINT WIRING (BYA) (WITHOUT SWITCH)</t>
+  </si>
+  <si>
+    <t>Surfacc channel wiring for the following point looping at the switch board with earth
+terminal with 1C-2x1.5sqmnrPVCinsulatedandsheathedstrandedcable(BYM)
+and lC- lx I .5 sqmm PVC insulated ECC(BYA) (Creen / Yellorv bi-colour)
+including circuit rviring(From SDB to Switch Board) with lC-2x25 sqmrn PVC
+insulateJ and sheathed stranded cable (BYM) &amp; lC-2x2 5 sqn'rm PVC insulated
+ECC(BYA) Green i Yellow bi-cclour through tninimunr I mm thick PVC channel
+complcte rvith l8 SwG CP shecl / PVC switch board (preferably concealed) $ith
+3mmthickebonitesheetcover.circularbox.withoutSwitch.fixingn,]aterials.other
+accessories elc. as required and nrending the damages good Ail electrical contac:s
+shall be of brass r'copper connectcd through connector ot soldering (no I$isti s
+shall he allorvetl) and cables shall b(] manutactured an&lt;i tested according to IEC / lls
+i VDE standard along with relevant BDS standard as per detailed specification
+nentionecinAnnexure-l."I.heworkshal!becarriedoutasperdirection&amp;applor,al
+ofthe Ltrgineer In Charge.</t>
+  </si>
+  <si>
+    <t>Cables manufactured t)y Govt. of Bangladesh owned / shar€d company Ltd'
+(Easterr cables) approvetl bY the Engineer ln Charge'</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>l-ight / exhaust or wall bracket lan pointl-ight / exhaust or wall bracket lan point</t>
+  </si>
+  <si>
+    <t>Fan point</t>
+  </si>
+  <si>
+    <t>Call bell point with gang bell Push</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t>Concealed conduit wiring for following point looping at the switch board with earth
+terminal with IC-2x I .5 sqmm pVC insulated and shealhed stranded cable (ByM)
+&amp;lC-2x1.5 sqmm PVC insulated ECC (ByA) (Creen / yellow bi_colour) including
+circuit wiring with (From SDB to Switch Board) IC-2x2.5 sqmm pVC insulated and
+sheathed stranded cable (BYM) &amp; IC-2x2.5 sqmm pVC insulated ECC (ByA)
+Creen / Yellow bi-colour through pVC conduit (one conduit from switch board to
+common point on
+ceiling is considered to draw 3 pair of cable ) of reputed manufacturer of minimum
+25 mm dia &amp; I.7 mm wall rhickness complete with l8 SWG Cp sheet / pVC switch
+board &amp; pull box with 3mm thick ebonire sheet cover, withoul switch, fixing
+materials etc.(without switch) as required including mending the damages good. All
+electrical contacts shall be of brass .r copper connected through connector or
+soldering (no twisting shall be allowed) and cables shall be manufactured and tested
+according to IEC / BS / VDE standards along with relevant BDS standard as per
+detailed specification mentioned in Annexure- l . The work shall be canied out as per
+direction &amp; approval ofthe Engineer In Charge.</t>
+  </si>
+  <si>
+    <t>Cables manufactured by Govt. of Bangladesh owned / shared compaoy ltd.
+(Eastern cables) approved by the Engincer In Charge</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>Light / exhaust or ll bracket fan pornt</t>
+  </si>
+  <si>
+    <t>1.6.1.1</t>
+  </si>
+  <si>
+    <t>1.6.1.2</t>
+  </si>
+  <si>
+    <t>1.6.1.3</t>
+  </si>
+  <si>
+    <t>Call bell point \.vith gang bell push</t>
+  </si>
+  <si>
+    <t>Cable manufacturer(s) must have valid type test certificate (within last seven
+years) from internationally accredited laboratory (like CPRI, KEMA etc)
+accepted / approved by the Engineer ln Charge</t>
+  </si>
+  <si>
+    <t>1.6.2</t>
+  </si>
+  <si>
+    <t>1.6.2.1</t>
+  </si>
+  <si>
+    <t>1.6.2.2</t>
+  </si>
+  <si>
+    <t>1.6.2.3</t>
+  </si>
+  <si>
+    <t>Concealed conduit wiring for following point looping at the switch board with earth
+terminal with lC-2x1.5 sqmm PVC insualed cable (BYA) &amp; lC-2x1.5 sqmm PVC
+insulated ECC(BYA) Green / Yellow bi-colour including circuit wiring (From SDB
+to Switchboard) with lC-2x2.5 sqmm PVC insulated cable (BYA) &amp; lC-2x2.5
+sqmm PVC insulated ECC (BYA) (Creen / Yellow bi-colour) through PvC conduil
+(one conduit from switch board to common point on ceiling is considered to draw 3
+pair ofcable) ofreputed manufacturerlof minimum 25 mm dia &amp; 1.7 mm wall
+thickness complete with l8 SWG GP sheet / PVC switch board pull box with 3mm
+thick ebonite sheet cover. fixing materials etc.(withoul switch) as required including
+mending the damages good. All electrical contacts shall be of brass / copper
+connected through connector or soldering (no twisting shall be allowed) and cables
+shall be manufactured and tested according to IEC / BS / VDE standard along with
+relevant BDS standard as per detailed specification mentioned in Annexure- l. The
+work shall be carried out as per direction &amp; approval ofthe Engineer ln Charge</t>
+  </si>
+  <si>
+    <t>Cables manufactured by Govt. of Bangladesh owned / shared company Ltd.
+(Eastern cables) approved by the Engineer ln Charge</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>1.7.1.1</t>
+  </si>
+  <si>
+    <t>1.7.1.2</t>
+  </si>
+  <si>
+    <t>1.7.1.3</t>
+  </si>
+  <si>
+    <t>Cable manufacturer(s) must have valid type test certificate (within last seven
+years) from internationally accredited laboratory (like CPRI, KEMA etc)
+accepted / approved by the Engineer ln Charg</t>
+  </si>
+  <si>
+    <t>1.7.2</t>
+  </si>
+  <si>
+    <t>1.7.2.1</t>
+  </si>
+  <si>
+    <t>1.7.2.2</t>
+  </si>
+  <si>
+    <t>1.7.2.3</t>
+  </si>
+  <si>
+    <t>Surface channel wiring with the following PVC insulated and sheathed stranded
+cable (BYM) &amp; Creen / Yellow bi-colour PVC insulaled ECC wire (BYA), through
+nrinimum I mnr thick PVC channel complete with lixing materials, other accessories
+elc. as required including mending the damages good.                  AII electrical contacts shall be of brass / copper connected through connector or
+soldering (no twisting shall be allowed) and cables shall bc manufactured and tested
+according to IEC / BS / VDE standards along with relevant BDS standard as per
+detailed specification mentioned in Annexure- I . The work shall be carried out as per
+direction &amp; approval ofthe Engineer In Charge.</t>
+  </si>
+  <si>
+    <t>Cables manufactured by Covt. of Bangladesh owned / shared company ltd.
+(Eastern cables) approvcd by th€ Engineer ln Charge</t>
+  </si>
+  <si>
+    <t>1.8.1</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>Cable mrnufacturtr(s) musl havc Ialid tl-pe test cerlificatc (rrithin last seven
+years) from internalionalt] accrcdited laborator] (like (I'Rl' KIMA ctc)
+acccpted / aPprovtd by the Enginecr I n Ch'! Rgc</t>
+  </si>
+  <si>
+    <t>1.1.2.1</t>
+  </si>
+  <si>
+    <t>1.1.2.2</t>
+  </si>
+  <si>
+    <t>1.1.2.3</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>1 C-2x2.5 sqmm (BYM) cable with 2.5 sqmm (BYA) ECC wire</t>
+  </si>
+  <si>
+    <t>1.8.1.1</t>
+  </si>
+  <si>
+    <t>1 C-2x1.5 sqmm (BYM) cable with 1.5 sqmm (BYA) ECC wire</t>
+  </si>
+  <si>
+    <t>1 C-2x10 sqmm (BYM) cable with 10 sqmm (BYA) ECC wire</t>
+  </si>
+  <si>
+    <t>1 C-2x6 sqmm (BYM) cable with 6 sqmm (BYA) ECC wire</t>
+  </si>
+  <si>
+    <t>1 C-2x4 sqmm (BYM) cable with 4 sqmm (BYA) ECC wire</t>
+  </si>
+  <si>
+    <t>1.8.1.2</t>
+  </si>
+  <si>
+    <t>1.8.1.3</t>
+  </si>
+  <si>
+    <t>1.8.1.4</t>
+  </si>
+  <si>
+    <t>1.8.1.5</t>
+  </si>
+  <si>
+    <t>Cable manufacturer(s) must have valid type tesi certificate (within last seven
+vears) from internationally accredited laboratory (like CPRI, KEMA etc)
+acccpted / approved by the Engineer ln Charge.</t>
+  </si>
+  <si>
+    <t>1.8.2</t>
+  </si>
+  <si>
+    <t>1.8.2.1</t>
+  </si>
+  <si>
+    <t>1.8.2.2</t>
+  </si>
+  <si>
+    <t>1.8.2.3</t>
+  </si>
+  <si>
+    <t>1.8.2.4</t>
+  </si>
+  <si>
+    <t>1.8.2.5</t>
+  </si>
+  <si>
+    <t>Concealed conduit wiring with the following PVC insulated stranded cable (BYA)
+&amp; PVC insulated Green / Yellow bi-colour ECC wire (BYA) through PVC conduit
+of reputed manufacturer complete with l8 SwC (;P sheet pull box with 3mm thick
+ebonite sheet cover, fixing materials. other acccssories etc as required including
+mending the damages good.
+All electrical contacts shall be of brass / copper connected through connector or
+soldering (no twisting shall be allowed) and cables shall be manufactured and tested
+according to IEC / BS / VDE standards along with relevant BDS standard as per
+detailed specification mentioned in Annexure- I . Ihe work shall be carried out as per
+direction &amp; approval ofthe Engineer In Charge</t>
+  </si>
+  <si>
+    <t>Cablcs manufactured by Govt. of Bangladesh owned / shared company ltd'
+(Eastern cabl€s) approved by the Engineer In Charge.</t>
+  </si>
+  <si>
+    <t>1.16.1</t>
+  </si>
+  <si>
+    <t>1.16.1.1</t>
+  </si>
+  <si>
+    <t>lC-2x1.5sqmm (BYA) cable with 1.5sqmm (BYA) ECC wire through PVC pipe of
+minimum inner dia l6mmhavingwall thickness of 1.5 mm</t>
+  </si>
+  <si>
+    <t>lC-2x2.5sqmm (BYA) cable with 2.5sqmm (BYA) ECC wire through PVC pipe of
+minimum inner dia l6mmhavingwall thickness of 1.5 mm</t>
+  </si>
+  <si>
+    <t>lC-2x4sqmm (BYA) cable with 4sqmm (BYA) ECC wire through PVC pipe of
+minimum inner dia l6mmhavingwall thickness of 1.5 mm</t>
+  </si>
+  <si>
+    <t>Cable manufacturer(s) must have valid type tcst certificate (within last seven
+years) from internalionally accreditcd laboratory (like CPRI, KEMA etc)
+accepted / approved by the Enginecr ln Chargr</t>
+  </si>
+  <si>
+    <t>1.16.2</t>
+  </si>
+  <si>
+    <t>1.16.2.1</t>
+  </si>
+  <si>
+    <t>1.16.2.2</t>
+  </si>
+  <si>
+    <t>1.16.2.3</t>
+  </si>
+  <si>
+    <t>1.16.2.4</t>
+  </si>
+  <si>
+    <t>1.16.2.5</t>
+  </si>
+  <si>
+    <t>1.16.1.6</t>
+  </si>
+  <si>
+    <t>1.16.1.2</t>
+  </si>
+  <si>
+    <t>1.16.1.3</t>
+  </si>
+  <si>
+    <t>1.16.1.4</t>
+  </si>
+  <si>
+    <t>1.16.1.5</t>
+  </si>
+  <si>
+    <t>lC-2x16sqmm (BYA) cable with 16sqmm (BYA) ECC wire through PVC pipe of
+minimum inner dia 25mmhavingwall thickness of 1.7 mm</t>
+  </si>
+  <si>
+    <t>lC-2x10sqmm (BYA) cable with 10sqmm (BYA) ECC wire through PVC pipe of
+minimum inner dia 20mmhavingwall thickness of 1.5 mm</t>
+  </si>
+  <si>
+    <t>lC-2x6sqmm (BYA) cable with 6sqmm (BYA) ECC wire through PVC pipe of
+minimum inner dia 20mmhavingwall thickness of 1.5 mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,7 +486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +505,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -219,11 +548,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -266,8 +606,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,22 +924,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="82.36328125" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-    <col min="4" max="4" width="26.7265625" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" customWidth="1"/>
+    <col min="2" max="2" width="82.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="58.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="59.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -580,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1.1000000000000001</v>
       </c>
@@ -591,1086 +968,1706 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1197</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1197</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1231</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="24">
+        <v>1092</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="24">
+        <v>1092</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="24">
+        <v>1122</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
         <v>1.2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A11" s="14">
+      <c r="C12" s="2"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A20" s="17">
         <v>1.3</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="C20" s="2"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
         <v>1.4</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A25" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A29" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>32</v>
-      </c>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+    <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+    <row r="34" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A34" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.4">
-      <c r="A35" s="11">
+    <row r="35" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="25">
+        <v>1367</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="25">
+        <v>1367</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="25">
+        <v>1438</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="25">
+        <v>1255</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="25">
+        <v>1255</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="25">
+        <v>1327</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A44" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="25">
+        <v>1241</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="25">
+        <v>1241</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="25">
+        <v>1312</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="25">
+        <v>1155</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="25">
+        <v>1155</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="25">
+        <v>1227</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A54" s="11">
         <v>1.8</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B54" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A40" s="7">
+      <c r="C54" s="1"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="25">
+        <v>151</v>
+      </c>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="25">
+        <v>207</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="25">
+        <v>300</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="25">
+        <v>419</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="25">
+        <v>646</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="25">
+        <v>135</v>
+      </c>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="25">
+        <v>188</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="25">
+        <v>267</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="25">
+        <v>371</v>
+      </c>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="25">
+        <v>578</v>
+      </c>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A68" s="7">
         <v>1.9</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B68" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A45" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A50" s="11">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A55" s="7">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A61" s="7">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A65" s="7">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="D69" s="25"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A70" s="11">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>15</v>
-      </c>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="25"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+    <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A73" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="D73" s="25"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A75" s="11">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>16</v>
-      </c>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="25"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="25"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+    <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A78" s="20">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="25"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A81" s="7">
-        <v>1.17</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>17</v>
-      </c>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="D81" s="25"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="D82" s="25"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+    <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A83" s="7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="D83" s="25"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="D84" s="25"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="D85" s="25"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="D86" s="25"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A87" s="7">
-        <v>1.18</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>18</v>
-      </c>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="D87" s="25"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="D88" s="25"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+    <row r="89" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A89" s="7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="25"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="D90" s="25"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="D91" s="25"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="D92" s="25"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+    <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A93" s="7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="D93" s="25"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A94" s="7">
-        <v>1.19</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>19</v>
-      </c>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="D94" s="25"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="D95" s="25"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="D96" s="25"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="D97" s="25"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A98" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>20</v>
+    <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A98" s="20">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="D98" s="25"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="D99" s="25"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="D100" s="25"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="D101" s="25"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+    <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A102" s="11">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="D102" s="25"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="B103" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="D103" s="25"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A104" s="7">
-        <v>1.21</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>21</v>
+    <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="D104" s="25"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+    <row r="105" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D105" s="25">
+        <v>204</v>
+      </c>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D106" s="25">
+        <v>278</v>
+      </c>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+    <row r="107" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D107" s="25">
+        <v>386</v>
+      </c>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+    <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D108" s="25">
+        <v>526</v>
+      </c>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A109" s="7">
-        <v>1.22</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+    <row r="109" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D109" s="25">
+        <v>750</v>
+      </c>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+    <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D110" s="25">
+        <v>1113</v>
+      </c>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+    <row r="111" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B111" s="28" t="s">
+        <v>100</v>
+      </c>
       <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+      <c r="D111" s="25"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+    <row r="112" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D112" s="25">
+        <v>193</v>
+      </c>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+    <row r="113" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B113" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D113" s="25">
+        <v>243</v>
+      </c>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A114" s="11">
-        <v>1.23</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+    <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B114" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D114" s="25">
+        <v>351</v>
+      </c>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+    <row r="115" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D115" s="25">
+        <v>471</v>
+      </c>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+    <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D116" s="25">
+        <v>681</v>
+      </c>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+    <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D117" s="25">
+        <v>1008</v>
+      </c>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+    <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A118" s="7">
+        <v>1.17</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="D118" s="25"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A119" s="7">
-        <v>1.24</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="D120" s="25"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="D121" s="25"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="D122" s="25"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A123" s="11">
-        <v>1.25</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>25</v>
-      </c>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="D123" s="25"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+    <row r="124" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A124" s="7">
+        <v>1.18</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="D124" s="25"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+      <c r="D125" s="25"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
+      <c r="D126" s="25"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A127" s="7">
-        <v>1.26</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>26</v>
-      </c>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="D127" s="25"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="D128" s="25"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="D129" s="25"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="D130" s="25"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+    <row r="131" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A131" s="7">
+        <v>1.19</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
+      <c r="D131" s="25"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="D132" s="25"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A133" s="7">
-        <v>1.27</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>27</v>
-      </c>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="D133" s="25"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="D134" s="25"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+    <row r="135" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A135" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="D135" s="25"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="D136" s="25"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="D137" s="25"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A138" s="7">
-        <v>1.28</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>28</v>
-      </c>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="D138" s="25"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="D139" s="25"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="D140" s="25"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+    <row r="141" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A141" s="7">
+        <v>1.21</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="D141" s="25"/>
       <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A146" s="7">
+        <v>1.22</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A151" s="11">
+        <v>1.23</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A156" s="7">
+        <v>1.24</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="26"/>
+      <c r="E156" s="5"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A160" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A164" s="11">
+        <v>1.26</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A170" s="7">
+        <v>1.27</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A175" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
